--- a/Document/Testcase/IntegrationTest_FONT_MEMBER.xlsx
+++ b/Document/Testcase/IntegrationTest_FONT_MEMBER.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Search game" sheetId="18" r:id="rId15"/>
     <sheet name="Add Information" sheetId="19" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,12 +34,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,12 +79,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -124,12 +124,12 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -169,12 +169,12 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -214,12 +214,12 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -259,12 +259,12 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -304,12 +304,12 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -327,7 +327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -349,12 +349,12 @@
 </file>
 
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -394,12 +394,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -439,12 +439,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -462,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -484,12 +484,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -507,7 +507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -529,12 +529,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -552,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -574,12 +574,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -597,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -619,12 +619,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -642,7 +642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -664,12 +664,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -687,7 +687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -709,12 +709,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="G10" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -732,7 +732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1684,7 +1684,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -2142,6 +2142,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2169,13 +2172,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2452,7 +2452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2474,35 +2474,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
@@ -2517,10 +2517,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -2536,10 +2536,10 @@
         <f>COUNTIF(F$10:H$1015,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>4</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
@@ -2587,7 +2587,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -2615,7 +2615,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="75">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -2641,7 +2641,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="105">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="75">
-      <c r="A14" s="36"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -2702,7 +2702,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2713,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2733,35 +2733,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -2776,10 +2776,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -2795,10 +2795,10 @@
         <f>COUNTIF(F$10:H$1021,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>22</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -2833,7 +2833,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -2861,7 +2861,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="75">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="75">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="75">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="75">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="60">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="23">
         <v>6</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="75">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="3">
         <v>7</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="75">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="24">
         <v>8</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="75">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="24">
         <v>9</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="75">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="24">
         <v>10</v>
       </c>
@@ -3095,7 +3095,7 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="75">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="24">
         <v>11</v>
       </c>
@@ -3121,7 +3121,7 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="75">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="24">
         <v>12</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="90">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="24">
         <v>13</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="75">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="24">
         <v>14</v>
       </c>
@@ -3199,7 +3199,7 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="105">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="24">
         <v>15</v>
       </c>
@@ -3225,7 +3225,7 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="105">
-      <c r="A26" s="42"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="24">
         <v>16</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="90">
-      <c r="A27" s="42"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="24">
         <v>17</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="90">
-      <c r="A28" s="42"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="24">
         <v>18</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="90">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="24">
         <v>19</v>
       </c>
@@ -3329,7 +3329,7 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="90">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="24">
         <v>20</v>
       </c>
@@ -3355,7 +3355,7 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="90">
-      <c r="A31" s="42"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="24">
         <v>21</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="75">
-      <c r="A32" s="42"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3">
         <v>22</v>
       </c>
@@ -3416,7 +3416,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3427,7 +3427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -3447,35 +3447,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -3490,10 +3490,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -3509,10 +3509,10 @@
         <f>COUNTIF(F$10:H$1019,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>21</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -3547,7 +3547,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -3575,7 +3575,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="75">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="75">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -3627,7 +3627,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="75">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="75">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="75">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="23">
         <v>6</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="75">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="3">
         <v>7</v>
       </c>
@@ -3731,7 +3731,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="75">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="3">
         <v>8</v>
       </c>
@@ -3757,7 +3757,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="75">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3">
         <v>9</v>
       </c>
@@ -3783,7 +3783,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="75">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="3">
         <v>10</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="75">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3">
         <v>11</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="90">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3">
         <v>12</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="75">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3">
         <v>13</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="105">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3">
         <v>14</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="105">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3">
         <v>15</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="90">
-      <c r="A26" s="42"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3">
         <v>16</v>
       </c>
@@ -3965,7 +3965,7 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="90">
-      <c r="A27" s="42"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="3">
         <v>17</v>
       </c>
@@ -3991,7 +3991,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="90">
-      <c r="A28" s="42"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="3">
         <v>18</v>
       </c>
@@ -4017,7 +4017,7 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="90">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="3">
         <v>19</v>
       </c>
@@ -4043,7 +4043,7 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="90">
-      <c r="A30" s="42"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="3">
         <v>20</v>
       </c>
@@ -4069,7 +4069,7 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" ht="75">
-      <c r="A31" s="42"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3">
         <v>21</v>
       </c>
@@ -4104,7 +4104,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4115,7 +4115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4135,35 +4135,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -4178,10 +4178,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -4197,10 +4197,10 @@
         <f>COUNTIF(F$10:H$1019,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>2</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -4235,7 +4235,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -4263,7 +4263,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="105">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4301,7 +4301,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4313,7 +4313,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4325,7 +4325,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4337,7 +4337,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4358,7 +4358,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4369,7 +4369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4389,35 +4389,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -4432,10 +4432,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -4451,10 +4451,10 @@
         <f>COUNTIF(F$10:H$1019,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>2</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -4489,7 +4489,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -4517,7 +4517,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="90">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4555,7 +4555,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4567,7 +4567,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4579,7 +4579,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4591,7 +4591,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4612,7 +4612,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4623,7 +4623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4643,35 +4643,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -4686,10 +4686,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -4705,10 +4705,10 @@
         <f>COUNTIF(F$10:H$1019,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>2</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -4743,7 +4743,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -4771,7 +4771,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="60">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4809,7 +4809,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4821,7 +4821,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4833,7 +4833,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4845,7 +4845,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4866,7 +4866,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0D00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4877,7 +4877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4897,35 +4897,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -4940,10 +4940,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -4959,10 +4959,10 @@
         <f>COUNTIF(F$10:H$1019,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>16</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -4997,7 +4997,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="105">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -5025,7 +5025,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="105">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="75">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -5077,7 +5077,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="75">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -5103,7 +5103,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="75">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="75">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3">
         <v>6</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="75">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="3">
         <v>7</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="75">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="3">
         <v>8</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="75">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3">
         <v>9</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="75">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="3">
         <v>10</v>
       </c>
@@ -5259,7 +5259,7 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="75">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3">
         <v>11</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="75">
-      <c r="A22" s="42"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3">
         <v>12</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="60">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3">
         <v>13</v>
       </c>
@@ -5337,7 +5337,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" ht="75">
-      <c r="A24" s="42"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3">
         <v>14</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="60">
-      <c r="A25" s="42"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3">
         <v>15</v>
       </c>
@@ -5389,7 +5389,7 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="75">
-      <c r="A26" s="42"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3">
         <v>16</v>
       </c>
@@ -5424,7 +5424,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0E00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5435,10 +5435,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -5455,35 +5455,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -5498,10 +5498,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -5517,10 +5517,10 @@
         <f>COUNTIF(F$10:H$1019,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>3</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -5555,7 +5555,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -5583,7 +5583,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="90">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="75">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3"/>
       <c r="C14" s="22"/>
       <c r="D14" s="7"/>
@@ -5647,7 +5647,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3"/>
       <c r="C15" s="22"/>
       <c r="D15" s="7"/>
@@ -5659,7 +5659,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="22"/>
       <c r="D16" s="7"/>
@@ -5671,7 +5671,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="3"/>
       <c r="C17" s="22"/>
       <c r="D17" s="7"/>
@@ -5692,7 +5692,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0F00-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5703,7 +5703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5724,35 +5724,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
@@ -5767,10 +5767,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -5786,10 +5786,10 @@
         <f>COUNTIF(F$10:H$1015,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>3</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
@@ -5837,7 +5837,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -5865,7 +5865,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="120">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -5891,7 +5891,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="120">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -5926,7 +5926,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5937,7 +5937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5958,35 +5958,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="10" t="s">
@@ -6001,10 +6001,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -6020,10 +6020,10 @@
         <f>COUNTIF(F$10:H$1015,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>3</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
@@ -6071,7 +6071,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -6099,7 +6099,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="120">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="120">
-      <c r="A13" s="36"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -6160,7 +6160,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6171,7 +6171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6192,35 +6192,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -6235,10 +6235,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -6254,10 +6254,10 @@
         <f>COUNTIF(F$10:H$1015,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>8</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -6292,7 +6292,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="17">
@@ -6320,7 +6320,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="75">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="17">
         <v>2</v>
       </c>
@@ -6346,7 +6346,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="90">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="17">
         <v>3</v>
       </c>
@@ -6372,7 +6372,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="105">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="17">
         <v>4</v>
       </c>
@@ -6398,7 +6398,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="105">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="17">
         <v>5</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="135">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="17">
         <v>6</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="135">
-      <c r="A17" s="35"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="17">
         <v>7</v>
       </c>
@@ -6476,7 +6476,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="135">
-      <c r="A18" s="35"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="17">
         <v>8</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="3"/>
       <c r="C19" s="24"/>
       <c r="D19" s="7"/>
@@ -6523,7 +6523,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6535,7 +6535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6555,35 +6555,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -6598,10 +6598,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -6617,10 +6617,10 @@
         <f>COUNTIF(F$10:H$1017,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>6</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -6655,7 +6655,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="105">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="17">
@@ -6683,7 +6683,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="60">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="17">
         <v>2</v>
       </c>
@@ -6709,7 +6709,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="60">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="17">
         <v>3</v>
       </c>
@@ -6735,7 +6735,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="75">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="17">
         <v>4</v>
       </c>
@@ -6761,7 +6761,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="90">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="17">
         <v>5</v>
       </c>
@@ -6787,7 +6787,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="45">
-      <c r="A16" s="36"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="3">
         <v>6</v>
       </c>
@@ -6822,7 +6822,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6833,7 +6833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6853,35 +6853,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -6896,10 +6896,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -6915,10 +6915,10 @@
         <f>COUNTIF(F$10:H$1016,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>4</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -6953,7 +6953,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="114" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -6981,7 +6981,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="114" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -7007,7 +7007,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="105">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -7033,7 +7033,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="90">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -7059,14 +7059,14 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3"/>
       <c r="C15" s="24"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
     </row>
@@ -7080,7 +7080,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7091,7 +7091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7111,35 +7111,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -7154,10 +7154,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -7173,10 +7173,10 @@
         <f>COUNTIF(F$10:H$1016,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>8</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -7211,7 +7211,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="105">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -7239,7 +7239,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="105">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -7265,7 +7265,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="105">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -7291,7 +7291,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="105">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -7317,7 +7317,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="105">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="90">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="24">
         <v>6</v>
       </c>
@@ -7369,7 +7369,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="90">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="24">
         <v>7</v>
       </c>
@@ -7395,7 +7395,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="90">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="24">
         <v>8</v>
       </c>
@@ -7421,14 +7421,14 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3"/>
       <c r="C19" s="24"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
     </row>
@@ -7442,7 +7442,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7454,7 +7454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7474,35 +7474,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -7517,10 +7517,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -7536,10 +7536,10 @@
         <f>COUNTIF(F$10:H$1019,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
-        <v>10</v>
-      </c>
-      <c r="F5" s="41"/>
+      <c r="E5" s="42">
+        <v>10</v>
+      </c>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -7574,7 +7574,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="150">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -7602,7 +7602,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="105">
-      <c r="A12" s="42"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -7628,7 +7628,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="105">
-      <c r="A13" s="42"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -7654,7 +7654,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="105">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -7680,7 +7680,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="105">
-      <c r="A15" s="42"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="105">
-      <c r="A16" s="42"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3">
         <v>6</v>
       </c>
@@ -7732,7 +7732,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" ht="180">
-      <c r="A17" s="42"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="3">
         <v>7</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="90">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="24">
         <v>8</v>
       </c>
@@ -7784,7 +7784,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="90">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="24">
         <v>9</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="90">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="24">
         <v>10</v>
       </c>
@@ -7836,14 +7836,14 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="3"/>
       <c r="C21" s="24"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="31"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
     </row>
@@ -7857,7 +7857,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7868,7 +7868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -7888,35 +7888,35 @@
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
@@ -7931,10 +7931,10 @@
       <c r="D4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="13">
@@ -7950,10 +7950,10 @@
         <f>COUNTIF(F$10:H$1019,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="42">
         <v>5</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="63.75">
       <c r="A10" s="1" t="s">
@@ -7988,7 +7988,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="75">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="35" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3">
@@ -8016,7 +8016,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="75">
-      <c r="A12" s="35"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="75">
-      <c r="A13" s="35"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -8068,7 +8068,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="75">
-      <c r="A14" s="35"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="60">
-      <c r="A15" s="35"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -8120,7 +8120,7 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="35"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -8132,7 +8132,7 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="36"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="3"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -8153,7 +8153,7 @@
     <mergeCell ref="E5:F5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>$K$2:$K$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
